--- a/app/src/main/assets/Advance Web Programming.xlsx
+++ b/app/src/main/assets/Advance Web Programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B89862-7C6E-4091-9FEC-FBACB9D6414A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B0DF4-EFC0-48B1-80FB-C76C28C99312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="396">
   <si>
     <t>Which technology does ASP.NET use to access the database?</t>
   </si>
@@ -1212,6 +1212,9 @@
   </si>
   <si>
     <t>.aspx</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1551,7 @@
     <col min="6" max="6" width="87.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -1570,8 +1573,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -1593,8 +1599,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -1616,8 +1625,11 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -1639,8 +1651,11 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -1662,8 +1677,11 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -1685,8 +1703,11 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -1708,8 +1729,11 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -1731,8 +1755,11 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -1754,8 +1781,11 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -1777,8 +1807,11 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -1800,8 +1833,11 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -1823,8 +1859,11 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -1846,8 +1885,11 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -1869,8 +1911,11 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -1892,8 +1937,11 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -1915,8 +1963,11 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -1938,8 +1989,11 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -1961,8 +2015,11 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -1984,8 +2041,11 @@
       <c r="G19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -2007,8 +2067,11 @@
       <c r="G20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -2030,8 +2093,11 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -2053,8 +2119,11 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -2076,8 +2145,11 @@
       <c r="G23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>334</v>
       </c>
@@ -2099,8 +2171,11 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>334</v>
       </c>
@@ -2122,8 +2197,11 @@
       <c r="G25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>334</v>
       </c>
@@ -2145,8 +2223,11 @@
       <c r="G26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -2168,8 +2249,11 @@
       <c r="G27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>334</v>
       </c>
@@ -2191,8 +2275,11 @@
       <c r="G28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>334</v>
       </c>
@@ -2214,8 +2301,11 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -2237,8 +2327,11 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -2260,8 +2353,11 @@
       <c r="G31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2283,8 +2379,11 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2306,8 +2405,11 @@
       <c r="G33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2329,8 +2431,11 @@
       <c r="G34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2352,8 +2457,11 @@
       <c r="G35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -2375,8 +2483,11 @@
       <c r="G36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -2398,8 +2509,11 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -2421,8 +2535,11 @@
       <c r="G38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -2444,8 +2561,11 @@
       <c r="G39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -2467,8 +2587,11 @@
       <c r="G40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -2490,8 +2613,11 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -2513,8 +2639,11 @@
       <c r="G42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -2536,8 +2665,11 @@
       <c r="G43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2559,8 +2691,11 @@
       <c r="G44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -2582,8 +2717,11 @@
       <c r="G45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -2605,8 +2743,11 @@
       <c r="G46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -2628,8 +2769,11 @@
       <c r="G47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2651,8 +2795,11 @@
       <c r="G48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2674,8 +2821,11 @@
       <c r="G49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -2697,8 +2847,11 @@
       <c r="G50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2720,8 +2873,11 @@
       <c r="G51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -2743,8 +2899,11 @@
       <c r="G52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2766,8 +2925,11 @@
       <c r="G53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="G54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -2812,8 +2977,11 @@
       <c r="G55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2835,8 +3003,11 @@
       <c r="G56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -2858,8 +3029,11 @@
       <c r="G57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -2881,8 +3055,11 @@
       <c r="G58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -2904,8 +3081,11 @@
       <c r="G59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2927,8 +3107,11 @@
       <c r="G60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2950,8 +3133,11 @@
       <c r="G61" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -2972,6 +3158,9 @@
       </c>
       <c r="G62" t="s">
         <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2981,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D503DF-E9A0-4FA7-ABE8-A7900708628F}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,7 +3183,7 @@
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -3004,8 +3193,11 @@
       <c r="C1" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -3015,8 +3207,11 @@
       <c r="C2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3026,8 +3221,11 @@
       <c r="C3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -3037,8 +3235,11 @@
       <c r="C4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -3048,8 +3249,11 @@
       <c r="C5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3059,8 +3263,11 @@
       <c r="C6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -3070,8 +3277,11 @@
       <c r="C7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -3081,8 +3291,11 @@
       <c r="C8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -3092,8 +3305,11 @@
       <c r="C9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -3103,8 +3319,11 @@
       <c r="C10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -3114,8 +3333,11 @@
       <c r="C11" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -3125,8 +3347,11 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -3136,8 +3361,11 @@
       <c r="C13" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -3147,8 +3375,11 @@
       <c r="C14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -3158,8 +3389,11 @@
       <c r="C15" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -3169,8 +3403,11 @@
       <c r="C16" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -3180,8 +3417,11 @@
       <c r="C17" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -3191,8 +3431,11 @@
       <c r="C18" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -3202,8 +3445,11 @@
       <c r="C19" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -3213,8 +3459,11 @@
       <c r="C20" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -3224,8 +3473,11 @@
       <c r="C21" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -3235,8 +3487,11 @@
       <c r="C22" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -3246,8 +3501,11 @@
       <c r="C23" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>334</v>
       </c>
@@ -3257,8 +3515,11 @@
       <c r="C24" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>334</v>
       </c>
@@ -3268,8 +3529,11 @@
       <c r="C25" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>334</v>
       </c>
@@ -3279,8 +3543,11 @@
       <c r="C26" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -3290,8 +3557,11 @@
       <c r="C27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>334</v>
       </c>
@@ -3301,8 +3571,11 @@
       <c r="C28" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -3312,8 +3585,11 @@
       <c r="C29" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3323,8 +3599,11 @@
       <c r="C30" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -3334,8 +3613,11 @@
       <c r="C31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -3345,8 +3627,11 @@
       <c r="C32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -3356,8 +3641,11 @@
       <c r="C33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -3367,8 +3655,11 @@
       <c r="C34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -3378,8 +3669,11 @@
       <c r="C35" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -3389,8 +3683,11 @@
       <c r="C36" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -3400,8 +3697,11 @@
       <c r="C37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -3411,8 +3711,11 @@
       <c r="C38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3422,8 +3725,11 @@
       <c r="C39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -3433,8 +3739,11 @@
       <c r="C40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3753,11 @@
       <c r="C41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -3455,8 +3767,11 @@
       <c r="C42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3466,8 +3781,11 @@
       <c r="C43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3477,8 +3795,11 @@
       <c r="C44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -3488,8 +3809,11 @@
       <c r="C45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -3499,8 +3823,11 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -3510,8 +3837,11 @@
       <c r="C47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -3521,8 +3851,11 @@
       <c r="C48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -3531,6 +3864,9 @@
       </c>
       <c r="C49" t="s">
         <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3540,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A3EFCB-F37A-4B1E-9363-8ED5F131FC9F}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3552,7 +3888,7 @@
     <col min="2" max="2" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -3562,8 +3898,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -3573,8 +3912,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3584,8 +3926,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -3595,8 +3940,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -3606,8 +3954,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3617,8 +3968,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -3628,8 +3982,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -3639,8 +3996,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -3650,8 +4010,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -3661,8 +4024,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -3672,8 +4038,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -3683,8 +4052,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -3694,8 +4066,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -3705,8 +4080,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -3716,8 +4094,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -3727,8 +4108,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -3738,8 +4122,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -3749,8 +4136,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -3760,8 +4150,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -3771,8 +4164,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -3782,8 +4178,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -3793,8 +4192,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -3804,8 +4206,11 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>334</v>
       </c>
@@ -3815,8 +4220,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>334</v>
       </c>
@@ -3826,8 +4234,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>334</v>
       </c>
@@ -3837,8 +4248,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -3848,8 +4262,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>334</v>
       </c>
@@ -3859,8 +4276,11 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>334</v>
       </c>
@@ -3870,8 +4290,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -3881,8 +4304,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -3892,8 +4318,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -3903,8 +4332,11 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -3914,8 +4346,11 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -3925,8 +4360,11 @@
       <c r="C34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -3936,8 +4374,11 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -3947,8 +4388,11 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -3958,8 +4402,11 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -3969,8 +4416,11 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -3980,8 +4430,11 @@
       <c r="C39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -3991,8 +4444,11 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4002,8 +4458,11 @@
       <c r="C41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4013,8 +4472,11 @@
       <c r="C42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4024,8 +4486,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4035,8 +4500,11 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4046,8 +4514,11 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4057,8 +4528,11 @@
       <c r="C46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4068,8 +4542,11 @@
       <c r="C47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4079,8 +4556,11 @@
       <c r="C48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4090,8 +4570,11 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4101,8 +4584,11 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4112,8 +4598,11 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4123,8 +4612,11 @@
       <c r="C52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -4134,8 +4626,11 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4145,8 +4640,11 @@
       <c r="C54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -4156,8 +4654,11 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -4167,8 +4668,11 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -4178,8 +4682,11 @@
       <c r="C57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -4188,6 +4695,9 @@
       </c>
       <c r="C58" t="b">
         <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
